--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCdda.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTabledCdda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7C934-46D9-4E62-8B65-248124F40287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE95F4-3679-4C63-AD4C-E7AB44D4FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,92 +348,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-0.24064227395494575</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="C1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="D1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="E1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="F1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="G1">
+        <v>-0.24064227395494575</v>
+      </c>
+      <c r="H1">
+        <v>-0.24064227395494575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.1604281826366305</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="C2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="D2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="E2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="F2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="G2">
+        <v>-0.1604281826366305</v>
+      </c>
+      <c r="H2">
+        <v>-0.1604281826366305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-8.021409131831525E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="C3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="D3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="E3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="F3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="G3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+      <c r="H3">
+        <v>-8.021409131831525E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.021409131831525E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="C5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.021409131831525E-2</v>
+      </c>
+      <c r="H5">
+        <v>8.021409131831525E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.1604281826366305</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="C6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="D6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="E6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="F6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="G6">
+        <v>0.1604281826366305</v>
+      </c>
+      <c r="H6">
+        <v>0.1604281826366305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.24064227395494575</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="C7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="D7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="E7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="F7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="G7">
+        <v>0.24064227395494575</v>
+      </c>
+      <c r="H7">
+        <v>0.24064227395494575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.320856365273261</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="C8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="D8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="E8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="F8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="G8">
+        <v>0.320856365273261</v>
+      </c>
+      <c r="H8">
+        <v>0.320856365273261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.40107045659157625</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="C9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="D9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="E9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="F9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="G9">
+        <v>0.40107045659157625</v>
+      </c>
+      <c r="H9">
+        <v>0.40107045659157625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.4812845479098915</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="C10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="D10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="E10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="F10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="G10">
+        <v>0.4812845479098915</v>
+      </c>
+      <c r="H10">
+        <v>0.4812845479098915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.56149863922820675</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="C11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="D11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="E11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="F11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="G11">
+        <v>0.56149863922820675</v>
+      </c>
+      <c r="H11">
+        <v>0.56149863922820675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.641712730546522</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="C12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="D12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="E12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="F12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="G12">
+        <v>0.641712730546522</v>
+      </c>
+      <c r="H12">
+        <v>0.641712730546522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.72192682186483725</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="C13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="D13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="E13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="F13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="G13">
+        <v>0.72192682186483725</v>
+      </c>
+      <c r="H13">
+        <v>0.72192682186483725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.8021409131831525</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.88235500450146787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.962569095819783</v>
+      <c r="B14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="C14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="D14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="E14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="F14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="G14">
+        <v>0.8021409131831525</v>
+      </c>
+      <c r="H14">
+        <v>0.8021409131831525</v>
       </c>
     </row>
   </sheetData>
